--- a/Result/checksun/橡膠工業.xlsx
+++ b/Result/checksun/橡膠工業.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-7619447</v>
+        <v>-3353756</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-6599345</v>
+        <v>-1806495</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-4714056</v>
+        <v>1073386</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>1722157</v>
+        <v>7189787</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-622803</v>
+        <v>8353080</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1533614</v>
+        <v>6885339</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>2543534</v>
+        <v>2651661</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>5415653</v>
+        <v>3931452</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>4253828</v>
+        <v>3831210</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>2924096</v>
+        <v>449975</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>3560230</v>
+        <v>1693247</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1097897</v>
+        <v>-3312632</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>5949638</v>
+        <v>6313729</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>6836250</v>
+        <v>6627893</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>3593041</v>
+        <v>2908848</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>2115392</v>
+        <v>-882930</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-1340979</v>
+        <v>-4054560</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>1370671</v>
+        <v>-4645039</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-1751301</v>
+        <v>-3258447</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>1132622</v>
+        <v>-711663</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-2054864</v>
+        <v>-3208190</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-1247021</v>
+        <v>-3426334</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-3846203</v>
+        <v>-7152559</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-3960846</v>
+        <v>2374611</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>1227286</v>
+        <v>10436326</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>34078579</v>
+        <v>36600865</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>26709441</v>
+        <v>20032378</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>16196347</v>
+        <v>2681567</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-768085</v>
+        <v>-3725178</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-854743</v>
+        <v>-4508914</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-6987307</v>
+        <v>-13957104</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>3290371</v>
+        <v>-3744452</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-5822320</v>
+        <v>-5246062</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-6527473</v>
+        <v>-8683544</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>-6247464</v>
+        <v>-4133253</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>2168149</v>
+        <v>-15912002</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>7926143</v>
+        <v>18806814</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>15960741</v>
+        <v>33408404</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>4658121</v>
+        <v>31017177</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>2099286</v>
+        <v>20556994</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-8894766</v>
+        <v>20703686</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>2617189</v>
+        <v>21143563</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>8781385</v>
+        <v>11111775</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>26342429</v>
+        <v>14522210</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>23741867</v>
+        <v>3486101</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>9676323</v>
+        <v>-11369295</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>3256023</v>
+        <v>-14590885</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-5215493</v>
+        <v>-41664611</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-6892900</v>
+        <v>55194602</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-7224256</v>
+        <v>58184732</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-10190009</v>
+        <v>70674748</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-37840428</v>
+        <v>61430577</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>43032040</v>
+        <v>71967982</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>73741195</v>
+        <v>73147190</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>99927930</v>
+        <v>89625262</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>22376948</v>
+        <v>18232151</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>7123562</v>
+        <v>-4746651</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>-656925</v>
+        <v>-12592433</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>6558994</v>
+        <v>-4552627</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-7717567</v>
+        <v>-28695547</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>12599116</v>
+        <v>43681481</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>6635785</v>
+        <v>38003552</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>8332793</v>
+        <v>52603588</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>8101101</v>
+        <v>36322553</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>25124286</v>
+        <v>38984126</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>28937208</v>
+        <v>40593780</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>22981264</v>
+        <v>11575012</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>6243481</v>
+        <v>-15458205</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>15333587</v>
+        <v>-4911447</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>5240188</v>
+        <v>-25356129</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>7616359</v>
+        <v>-19236868</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-3677015</v>
+        <v>-39999114</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>176196378</v>
+        <v>861517679</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>169010840</v>
+        <v>638945362</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>146032534</v>
+        <v>566115199</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>224661250</v>
+        <v>56812159</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>344587894</v>
+        <v>-446278071</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>591686152</v>
+        <v>-764412006</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>460660051</v>
+        <v>-664423031</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>125346628</v>
+        <v>-646183312</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-171603487</v>
+        <v>-992176757</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>-628509142</v>
+        <v>-816428516</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>-916212593</v>
+        <v>-926832441</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>-1184494671</v>
+        <v>-1061722537</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>63057400</v>
+        <v>86208425</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>13923828</v>
+        <v>50627577</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>8910662</v>
+        <v>46083532</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>5234618</v>
+        <v>28846955</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>29875955</v>
+        <v>44006648</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>12477323</v>
+        <v>30578594</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>17916407</v>
+        <v>17699144</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>6827794</v>
+        <v>9112429</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>24695547</v>
+        <v>8344458</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>5695930</v>
+        <v>-11174689</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>7302899</v>
+        <v>-2304794</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>-6594276</v>
+        <v>12477616</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>6518312</v>
+        <v>19418818</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>15846678</v>
+        <v>41636102</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-7713323</v>
+        <v>34628050</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-14272595</v>
+        <v>18024498</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>5864554</v>
+        <v>36671340</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>24859489</v>
+        <v>40347499</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>27173101</v>
+        <v>29435586</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>19924870</v>
+        <v>24281735</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>17481884</v>
+        <v>10641242</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>5123992</v>
+        <v>-5659855</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>10881916</v>
+        <v>171202</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-1993874</v>
+        <v>9701691</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20591,11 +20591,11 @@
         <v>0.86</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>19.65</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -20622,22 +20622,22 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="U110" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V110" t="n">
         <v>40</v>
@@ -20729,7 +20729,7 @@
       </c>
       <c r="AO110" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP110" t="n">
@@ -20833,7 +20833,7 @@
         </is>
       </c>
       <c r="U111" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V111" t="n">
         <v>49</v>
@@ -20860,7 +20860,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>-43034842</v>
+        <v>87057348</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="AO111" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP111" t="n">
@@ -21020,7 +21020,7 @@
         </is>
       </c>
       <c r="U112" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V112" t="n">
         <v>97</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-54507081</v>
+        <v>102245864</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="AO112" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP112" t="n">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="U113" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V113" t="n">
         <v>104</v>
@@ -21234,7 +21234,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>13435767</v>
+        <v>127982603</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="AO113" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP113" t="n">
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="U114" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V114" t="n">
         <v>94</v>
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>117552681</v>
+        <v>144957892</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
       </c>
       <c r="AO114" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP114" t="n">
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="U115" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V115" t="n">
         <v>94</v>
@@ -21608,7 +21608,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>147822045</v>
+        <v>169300748</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
       </c>
       <c r="AO115" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP115" t="n">
@@ -21768,7 +21768,7 @@
         </is>
       </c>
       <c r="U116" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V116" t="n">
         <v>93</v>
@@ -21795,7 +21795,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>106770434</v>
+        <v>120150105</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
       </c>
       <c r="AO116" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP116" t="n">
@@ -21955,7 +21955,7 @@
         </is>
       </c>
       <c r="U117" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V117" t="n">
         <v>37</v>
@@ -21982,7 +21982,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>12539509</v>
+        <v>26843441</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
       </c>
       <c r="AO117" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP117" t="n">
@@ -22142,7 +22142,7 @@
         </is>
       </c>
       <c r="U118" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V118" t="n">
         <v>29</v>
@@ -22169,7 +22169,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>8930900</v>
+        <v>12755766</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="AO118" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP118" t="n">
@@ -22329,7 +22329,7 @@
         </is>
       </c>
       <c r="U119" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V119" t="n">
         <v>30</v>
@@ -22356,7 +22356,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>7776402</v>
+        <v>4664816</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
       </c>
       <c r="AO119" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP119" t="n">
@@ -22516,7 +22516,7 @@
         </is>
       </c>
       <c r="U120" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V120" t="n">
         <v>22</v>
@@ -22543,7 +22543,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>14865702</v>
+        <v>10515891</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="AO120" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP120" t="n">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="U121" t="n">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="V121" t="n">
         <v>26</v>
@@ -22730,7 +22730,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>12547803</v>
+        <v>11476202</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="AO121" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AP121" t="n">
@@ -22917,7 +22917,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>236859800</v>
+        <v>780367432</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>80813958</v>
+        <v>752408888</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-80796841</v>
+        <v>704280255</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>-290107636</v>
+        <v>625200509</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>254473970</v>
+        <v>723359009</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>610784938</v>
+        <v>781729510</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>833615268</v>
+        <v>855389864</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>417120960</v>
+        <v>326038856</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>174292158</v>
+        <v>9743104</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>81692877</v>
+        <v>-114194864</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>51764079</v>
+        <v>-104319711</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>-3347586</v>
+        <v>7440514</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>

--- a/Result/checksun/橡膠工業.xlsx
+++ b/Result/checksun/橡膠工業.xlsx
@@ -722,16 +722,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1598,20 +1598,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>-30</v>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>-30</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2258,17 +2258,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,17 +3130,17 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
         <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4006,13 +4006,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4444,17 +4444,17 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>-3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4663,17 +4663,17 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4882,17 +4882,17 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5535,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5754,10 +5754,10 @@
         <v>-1</v>
       </c>
       <c r="B25" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -5970,16 +5970,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6192,17 +6192,17 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -6411,13 +6411,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6846,20 +6846,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>-7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7065,20 +7065,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7284,20 +7284,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7937,16 +7937,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="n">
-        <v>7</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8375,13 +8375,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -8594,16 +8594,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8816,17 +8816,17 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D39" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9032,20 +9032,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9251,20 +9251,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>-21</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9473,17 +9473,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9689,20 +9689,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10342,16 +10342,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10561,16 +10561,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10783,13 +10783,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -10999,16 +10999,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>2</v>
-      </c>
-      <c r="B49" t="n">
-        <v>19</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11218,20 +11218,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-49</v>
+        <v>5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -11437,16 +11437,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11656,20 +11656,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>74</v>
+        <v>-55</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11875,16 +11875,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -12094,20 +12094,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12750,13 +12750,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -12966,16 +12966,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13188,13 +13188,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13407,17 +13407,17 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -13623,20 +13623,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13842,16 +13842,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14061,20 +14061,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B63" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="n">
-        <v>80</v>
+        <v>-27</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14280,16 +14280,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14499,20 +14499,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15152,20 +15152,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -15371,16 +15371,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15590,20 +15590,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B70" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15812,13 +15812,13 @@
         <v>-1</v>
       </c>
       <c r="B71" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16028,20 +16028,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -16247,10 +16247,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C73" t="n">
         <v>3</v>
@@ -16466,20 +16466,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>75</v>
+        <v>-9</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16685,20 +16685,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16904,20 +16904,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17557,20 +17557,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -17786,16 +17786,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
         <v>-1</v>
       </c>
       <c r="D80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18011,16 +18011,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18236,16 +18236,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D82" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18453,16 +18453,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18670,16 +18670,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -18887,20 +18887,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19107,17 +19107,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19321,20 +19321,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -19971,10 +19971,10 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -20187,16 +20187,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20406,16 +20406,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20625,20 +20625,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20847,17 +20847,17 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D94" t="n">
         <v>1</v>
       </c>
-      <c r="D94" t="n">
-        <v>-42</v>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -21063,16 +21063,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
         <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21282,20 +21282,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>68</v>
+        <v>-44</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21501,20 +21501,20 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -21720,20 +21720,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22373,20 +22373,20 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -22594,20 +22594,20 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="B102" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22818,17 +22818,17 @@
         <v>-7</v>
       </c>
       <c r="B103" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C103" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -23036,20 +23036,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="B104" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C104" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -23257,20 +23257,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B105" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D105" t="n">
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -23478,20 +23478,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -23702,17 +23702,17 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>96</v>
+        <v>-35</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23920,20 +23920,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -24141,20 +24141,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -24800,16 +24800,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
         <v>2</v>
       </c>
-      <c r="B112" t="n">
-        <v>29</v>
-      </c>
-      <c r="C112" t="n">
-        <v>-1</v>
-      </c>
       <c r="D112" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -25019,16 +25019,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D113" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25238,16 +25238,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -25457,16 +25457,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C115" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25676,20 +25676,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -25895,20 +25895,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B117" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>8</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -26114,20 +26114,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B118" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>57</v>
+        <v>-26</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26333,20 +26333,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26552,20 +26552,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
